--- a/MainTop/24.03.2025/ozon_max/все/Поставка по городам/4 Дальний Восток.xlsx
+++ b/MainTop/24.03.2025/ozon_max/все/Поставка по городам/4 Дальний Восток.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>артикул</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Платье желтое р104</t>
   </si>
   <si>
-    <t>Платье желтое р116</t>
-  </si>
-  <si>
     <t>Платье желтое р122</t>
   </si>
   <si>
@@ -44,12 +41,6 @@
   </si>
   <si>
     <t>Футболка Соник Ежик Sonic р116</t>
-  </si>
-  <si>
-    <t>Футболка Соник Ежик Sonic р122</t>
-  </si>
-  <si>
-    <t>Футболка Соник Ежик Sonic р128</t>
   </si>
   <si>
     <t>Футболка Единорог р128</t>
@@ -539,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -577,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -585,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -601,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -609,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -617,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -625,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -633,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -737,7 +728,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -753,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -777,7 +768,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -793,7 +784,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -817,7 +808,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -825,7 +816,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -833,7 +824,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -849,7 +840,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -857,7 +848,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -865,7 +856,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -889,7 +880,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -921,7 +912,7 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -929,7 +920,7 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -937,7 +928,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -945,7 +936,7 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -953,30 +944,6 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54">
         <v>3</v>
       </c>
     </row>
